--- a/biology/Botanique/Erigeron_acer/Erigeron_acer.xlsx
+++ b/biology/Botanique/Erigeron_acer/Erigeron_acer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vergerette âcre, Erigeron acer, est une plante herbacée de la famille des Astéracées.
 </t>
@@ -511,9 +523,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas évaluée au niveau mondial ou européen. En France elle est classée comme non préoccupante[5]. Elle est considérée quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans les régions Pays-de-la-Loire et Haute-Normandie ; en danger (EN) en Limousin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas évaluée au niveau mondial ou européen. En France elle est classée comme non préoccupante. Elle est considérée quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans les régions Pays-de-la-Loire et Haute-Normandie ; en danger (EN) en Limousin.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (30 août 2021)[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 août 2021):
 Erigeron acer var. manshuricus Kom.
-Selon World Register of Marine Species                               (30 août 2021)[3] :
+Selon World Register of Marine Species                               (30 août 2021) :
 Erigeron acer subsp. acer
 Erigeron acer subsp. arctophilus (Rech.f.) Rech.f.
 Erigeron acer subsp. asadbarensis (Vierh.) Rech.f.
